--- a/genshin/458135580120904807_2020-11-16_14-00-02.xlsx
+++ b/genshin/458135580120904807_2020-11-16_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 01:50:59</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.07707175926</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-11-30 13:28:13</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44165.56126157408</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -693,10 +705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-11-19 22:58:18</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44154.95715277778</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-11-19 11:12:05</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44154.46672453704</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -839,10 +847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-11-17 22:41:20</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44152.94537037037</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -910,10 +916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-11-17 21:40:13</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44152.90292824074</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -977,10 +981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-11-17 20:35:41</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44152.85811342593</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1048,10 +1050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-11-17 15:59:01</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44152.66598379629</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1115,10 +1115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-11-17 13:58:04</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44152.58199074074</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1182,10 +1180,8 @@
           <t>3715087523</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-11-16 23:38:25</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44151.98501157408</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1249,10 +1245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-11-16 23:36:38</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44151.98377314815</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
@@ -1320,10 +1314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-11-16 23:30:53</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44151.9797800926</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -1391,10 +1383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-11-16 21:43:17</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44151.90505787037</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1462,10 +1452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-11-16 21:41:05</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44151.90353009259</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1533,10 +1521,8 @@
           <t>3714231132</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-11-16 19:59:56</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44151.83328703704</v>
       </c>
       <c r="I16" t="n">
         <v>5</v>
@@ -1604,10 +1590,8 @@
           <t>3713820221</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-11-16 19:59:44</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44151.83314814815</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1683,10 +1667,8 @@
           <t>3713820221</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-11-16 18:50:40</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44151.78518518519</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1754,10 +1736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-11-16 18:41:25</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44151.77876157407</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1817,10 +1797,8 @@
           <t>3713916161</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-11-16 18:30:41</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44151.77130787037</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1892,10 +1870,8 @@
           <t>3713848847</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-11-16 18:14:15</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44151.75989583333</v>
       </c>
       <c r="I21" t="n">
         <v>13</v>
@@ -1963,10 +1939,8 @@
           <t>3713814741</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-11-16 18:04:17</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44151.75297453703</v>
       </c>
       <c r="I22" t="n">
         <v>11</v>
@@ -2042,10 +2016,8 @@
           <t>3713820221</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-11-16 18:03:12</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44151.75222222223</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2121,10 +2093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:59:25</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44151.74959490741</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2200,10 +2170,8 @@
           <t>3713798172</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:58:43</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44151.7491087963</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2279,10 +2247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:45:43</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44151.74008101852</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2354,10 +2320,8 @@
           <t>3713671213</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:15:33</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44151.71913194445</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
@@ -2425,10 +2389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:09:25</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44151.71487268519</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2496,10 +2458,8 @@
           <t>3713464650</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:09:05</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44151.7146412037</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2571,10 +2531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:06:19</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44151.71271990741</v>
       </c>
       <c r="I30" t="n">
         <v>8</v>
@@ -2642,10 +2600,8 @@
           <t>3713574513</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:50:39</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44151.70184027778</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2713,10 +2669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:45:41</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44151.6983912037</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2780,10 +2734,8 @@
           <t>3713574513</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:40:22</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44151.69469907408</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2859,10 +2811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:40:08</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44151.69453703704</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2938,10 +2888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:35:54</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44151.69159722222</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3017,10 +2965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:25:51</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44151.68461805556</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3088,10 +3034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:23:37</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44151.68306712963</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3159,10 +3103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:07:18</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44151.67173611111</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3222,10 +3164,8 @@
           <t>3713464650</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:54:59</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44151.66318287037</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3301,10 +3241,8 @@
           <t>3713428750</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:39:02</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44151.65210648148</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3376,10 +3314,8 @@
           <t>3713415485</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:29:38</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44151.6455787037</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3455,10 +3391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:15:06</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44151.63548611111</v>
       </c>
       <c r="I42" t="n">
         <v>37</v>
@@ -3526,10 +3460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:13:47</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44151.63457175926</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3593,10 +3525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:02:56</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44151.62703703704</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3668,10 +3598,8 @@
           <t>3713347806</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:59:55</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44151.62494212963</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3735,10 +3663,8 @@
           <t>3713347806</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:58:15</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44151.62378472222</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
@@ -3802,10 +3728,8 @@
           <t>3713345596</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:54:59</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44151.6215162037</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3873,10 +3797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:52:26</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44151.61974537037</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3950,10 +3872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:48:54</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44151.61729166667</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
@@ -4021,10 +3941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:46:21</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44151.61552083334</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4092,10 +4010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:38:27</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44151.61003472222</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4159,10 +4075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:26:07</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44151.60146990741</v>
       </c>
       <c r="I52" t="n">
         <v>32</v>
@@ -4226,10 +4140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:24:10</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44151.60011574074</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4301,10 +4213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:21:48</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44151.59847222222</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4372,10 +4282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:15:27</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44151.5940625</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4443,10 +4351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:15:08</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44151.59384259259</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4518,10 +4424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:12:47</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44151.59221064814</v>
       </c>
       <c r="I57" t="n">
         <v>7</v>
@@ -4585,10 +4489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:08:47</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44151.58943287037</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4664,10 +4566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:02:38</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44151.58516203704</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4727,10 +4627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:01:42</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44151.58451388889</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4794,10 +4692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:01:39</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44151.58447916667</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4865,10 +4761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:00:19</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44151.58355324074</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4944,10 +4838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:00:17</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44151.58353009259</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5011,10 +4903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:00:16</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44151.58351851852</v>
       </c>
       <c r="I64" t="n">
         <v>62</v>
